--- a/biology/Botanique/Xyleborus/Xyleborus.xlsx
+++ b/biology/Botanique/Xyleborus/Xyleborus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xyleborus est un genre d'insectes coléoptères xylophages de la famille des Curculionidae, de la sous-famille des Scolytinae. Leurs larves creusent des galeries dans le bois.
 </t>
@@ -513,19 +525,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces rencontrées en Europe
-Xyleborus affinis (en)
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Xyleborus affinis (en)
 Xyleborus cryptographus
 Xyleborus dispar - Xylébore disparate
 Xyleborus dryographus
 Xyleborus eurygraphus
 Xyleborus monographus
 Xyleborus perforans
-Xyleborus pfeilii
-Autres espèces
-Xyleborus glabratus, en Asie (envahissante aux États-Unis)
-Synonymes
-Xyleborus elegans Sampson, 1923, un synonyme de Coptodryas elegans</t>
+Xyleborus pfeilii</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xyleborus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyleborus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Xyleborus glabratus, en Asie (envahissante aux États-Unis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xyleborus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xyleborus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Xyleborus elegans Sampson, 1923, un synonyme de Coptodryas elegans</t>
         </is>
       </c>
     </row>
